--- a/teaching/traditional_assets/database/data/norway/norway_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/norway/norway_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0968</v>
+        <v>0.0997</v>
       </c>
       <c r="E2">
-        <v>0.123</v>
+        <v>0.13</v>
       </c>
       <c r="F2">
-        <v>0.06544999999999999</v>
+        <v>0.035</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,103 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.01088772890793256</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.008561155480904246</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3964.83</v>
+        <v>3158.38</v>
       </c>
       <c r="L2">
-        <v>0.4827446396610293</v>
+        <v>0.4401309921962096</v>
       </c>
       <c r="M2">
-        <v>2084.931</v>
+        <v>1995.476</v>
       </c>
       <c r="N2">
-        <v>0.05885296433985113</v>
+        <v>0.05131763568283752</v>
       </c>
       <c r="O2">
-        <v>0.5258563418860329</v>
+        <v>0.6318036461730381</v>
       </c>
       <c r="P2">
-        <v>1758.028</v>
+        <v>347.776</v>
       </c>
       <c r="Q2">
-        <v>0.04962521982380223</v>
+        <v>0.008943751800189277</v>
       </c>
       <c r="R2">
-        <v>0.4434056441259777</v>
+        <v>0.1101121461002159</v>
       </c>
       <c r="S2">
-        <v>326.9030000000001</v>
+        <v>1647.7</v>
       </c>
       <c r="T2">
-        <v>0.1567931984319865</v>
+        <v>0.825717773603892</v>
       </c>
       <c r="U2">
-        <v>45411.96</v>
+        <v>40612.69</v>
       </c>
       <c r="V2">
-        <v>1.281878614919508</v>
+        <v>1.04443612928445</v>
       </c>
       <c r="W2">
-        <v>0.1132349330381394</v>
+        <v>0.09733069553049316</v>
       </c>
       <c r="X2">
-        <v>0.1036069408698575</v>
+        <v>0.09960323293032428</v>
       </c>
       <c r="Y2">
-        <v>0.00962799216828189</v>
+        <v>-0.002272537399831118</v>
       </c>
       <c r="Z2">
-        <v>0.04852825800666849</v>
+        <v>0.04352025757005952</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03877238943557666</v>
+        <v>0.03249327753691821</v>
       </c>
       <c r="AC2">
-        <v>-0.03894089149858261</v>
+        <v>-0.03249327753691821</v>
       </c>
       <c r="AD2">
-        <v>176489.39</v>
+        <v>176236.14</v>
       </c>
       <c r="AE2">
-        <v>514.7800314687044</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>177004.1700314687</v>
+        <v>176236.14</v>
       </c>
       <c r="AG2">
-        <v>131592.2100314687</v>
+        <v>135623.45</v>
       </c>
       <c r="AH2">
-        <v>0.833234218481424</v>
+        <v>0.8192421435123889</v>
       </c>
       <c r="AI2">
-        <v>0.8395493064231512</v>
+        <v>0.8334414251971356</v>
       </c>
       <c r="AJ2">
-        <v>0.7878909205025173</v>
+        <v>0.7771750046201255</v>
       </c>
       <c r="AK2">
-        <v>0.7955016554875863</v>
+        <v>0.7938472839869294</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>13040.44554455446</v>
-      </c>
-      <c r="AP2">
-        <v>9723.083347973157</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sparebanken Sør (OB:SOR)</t>
+          <t>Komplett Bank ASA (OB:KOMP)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,10 +716,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0968</v>
-      </c>
-      <c r="E3">
-        <v>0.0549</v>
+        <v>0.532</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -740,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>114.1</v>
+        <v>19.3</v>
       </c>
       <c r="L3">
-        <v>0.4483300589390962</v>
+        <v>0.2859259259259259</v>
       </c>
       <c r="M3">
-        <v>16.7</v>
+        <v>0.886</v>
       </c>
       <c r="N3">
-        <v>0.08516063233044364</v>
+        <v>0.004520408163265306</v>
       </c>
       <c r="O3">
-        <v>0.1463628396143734</v>
+        <v>0.04590673575129534</v>
       </c>
       <c r="P3">
-        <v>16.7</v>
+        <v>0.886</v>
       </c>
       <c r="Q3">
-        <v>0.08516063233044364</v>
+        <v>0.004520408163265306</v>
       </c>
       <c r="R3">
-        <v>0.1463628396143734</v>
+        <v>0.04590673575129534</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>81.7</v>
+        <v>156.6</v>
       </c>
       <c r="V3">
-        <v>0.4166241713411525</v>
+        <v>0.7989795918367346</v>
       </c>
       <c r="W3">
-        <v>0.0795953958841995</v>
+        <v>0.09410043881033643</v>
       </c>
       <c r="X3">
-        <v>0.5277673722497536</v>
+        <v>0.03254786726658924</v>
       </c>
       <c r="Y3">
-        <v>-0.4481719763655541</v>
+        <v>0.06155257154374719</v>
       </c>
       <c r="Z3">
-        <v>0.03234539030527948</v>
+        <v>0.7836990595611286</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03835129271761764</v>
+        <v>0.03212300455430912</v>
       </c>
       <c r="AC3">
-        <v>-0.03835129271761764</v>
+        <v>-0.03212300455430912</v>
       </c>
       <c r="AD3">
-        <v>5868.1</v>
+        <v>6.94</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>5868.1</v>
+        <v>6.94</v>
       </c>
       <c r="AG3">
-        <v>5786.400000000001</v>
+        <v>-149.66</v>
       </c>
       <c r="AH3">
-        <v>0.9676626760331123</v>
+        <v>0.03419729969449099</v>
       </c>
       <c r="AI3">
-        <v>0.8098957973914844</v>
+        <v>0.02821826461738636</v>
       </c>
       <c r="AJ3">
-        <v>0.9672210614291683</v>
+        <v>-3.229607250755287</v>
       </c>
       <c r="AK3">
-        <v>0.8077277422596946</v>
+        <v>-1.675173494515334</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -835,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sparebanken Vest (OB:SVEG)</t>
+          <t>SpareBank 1 Ringerike Hadeland (OB:RING)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -844,13 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0727</v>
+        <v>0.0499</v>
       </c>
       <c r="E4">
-        <v>0.123</v>
-      </c>
-      <c r="F4">
-        <v>0.07099999999999999</v>
+        <v>0.271</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -865,28 +853,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>217.7</v>
+        <v>84.2</v>
       </c>
       <c r="L4">
-        <v>0.492422528839629</v>
+        <v>1.00357568533969</v>
       </c>
       <c r="M4">
-        <v>38.5</v>
+        <v>18.2</v>
       </c>
       <c r="N4">
-        <v>0.08860759493670886</v>
+        <v>0.04187758858720662</v>
       </c>
       <c r="O4">
-        <v>0.1768488745980707</v>
+        <v>0.2161520190023753</v>
       </c>
       <c r="P4">
-        <v>38.5</v>
+        <v>18.2</v>
       </c>
       <c r="Q4">
-        <v>0.08860759493670886</v>
+        <v>0.04187758858720662</v>
       </c>
       <c r="R4">
-        <v>0.1768488745980707</v>
+        <v>0.2161520190023753</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -895,55 +883,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>39.2</v>
+        <v>9.93</v>
       </c>
       <c r="V4">
-        <v>0.0902186421173763</v>
+        <v>0.02284859641049241</v>
       </c>
       <c r="W4">
-        <v>0.1146030743314382</v>
+        <v>0.2059686888454012</v>
       </c>
       <c r="X4">
-        <v>0.465617752931402</v>
+        <v>0.05844887418385569</v>
       </c>
       <c r="Y4">
-        <v>-0.3510146785999638</v>
+        <v>0.1475198146615455</v>
       </c>
       <c r="Z4">
-        <v>0.03378264789937799</v>
+        <v>0.08249186388350851</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03835948330987682</v>
+        <v>0.0323427718726939</v>
       </c>
       <c r="AC4">
-        <v>-0.03835948330987682</v>
+        <v>-0.0323427718726939</v>
       </c>
       <c r="AD4">
-        <v>11345</v>
+        <v>653.3</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>11345</v>
+        <v>653.3</v>
       </c>
       <c r="AG4">
-        <v>11305.8</v>
+        <v>643.37</v>
       </c>
       <c r="AH4">
-        <v>0.9631138842905047</v>
+        <v>0.6005147531942273</v>
       </c>
       <c r="AI4">
-        <v>0.8622262080286979</v>
+        <v>0.6145235631643308</v>
       </c>
       <c r="AJ4">
-        <v>0.9629907242574721</v>
+        <v>0.5968347913207231</v>
       </c>
       <c r="AK4">
-        <v>0.8618145228911622</v>
+        <v>0.6108890302610215</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -960,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sparebanken Øst (OB:SPOG)</t>
+          <t>Pareto Bank ASA (OB:PARB)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -969,10 +957,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0458</v>
+        <v>0.16</v>
       </c>
       <c r="E5">
-        <v>-0.08310000000000001</v>
+        <v>0.194</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -981,103 +969,97 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0008315429294935297</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.00063901821182754</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>31.2</v>
+        <v>44.5</v>
       </c>
       <c r="L5">
-        <v>0.4262295081967213</v>
+        <v>0.6062670299727519</v>
       </c>
       <c r="M5">
-        <v>42.5</v>
+        <v>1.18</v>
       </c>
       <c r="N5">
-        <v>0.3297129557796741</v>
+        <v>0.003684046206681236</v>
       </c>
       <c r="O5">
-        <v>1.362179487179487</v>
+        <v>0.02651685393258427</v>
       </c>
       <c r="P5">
-        <v>12.3</v>
+        <v>1.18</v>
       </c>
       <c r="Q5">
-        <v>0.09542280837858805</v>
+        <v>0.003684046206681236</v>
       </c>
       <c r="R5">
-        <v>0.3942307692307693</v>
+        <v>0.02651685393258427</v>
       </c>
       <c r="S5">
-        <v>30.2</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.7105882352941176</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>49.5</v>
+        <v>206.9</v>
       </c>
       <c r="V5">
-        <v>0.3840186190845616</v>
+        <v>0.6459569153918202</v>
       </c>
       <c r="W5">
-        <v>0.06303030303030303</v>
+        <v>0.1285012994513428</v>
       </c>
       <c r="X5">
-        <v>0.3660028341705854</v>
+        <v>0.0633145048010586</v>
       </c>
       <c r="Y5">
-        <v>-0.3029725311402824</v>
+        <v>0.06518679465028415</v>
       </c>
       <c r="Z5">
-        <v>0.02459309138399907</v>
+        <v>0.08287230439200632</v>
       </c>
       <c r="AA5">
-        <v>1.571543327951437e-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03837881717370699</v>
+        <v>0.03237047600020118</v>
       </c>
       <c r="AC5">
-        <v>-0.03836310174042747</v>
+        <v>-0.03237047600020118</v>
       </c>
       <c r="AD5">
-        <v>2571</v>
+        <v>569.8</v>
       </c>
       <c r="AE5">
-        <v>6.745655287805368</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>2577.745655287805</v>
+        <v>569.8</v>
       </c>
       <c r="AG5">
-        <v>2528.245655287805</v>
+        <v>362.9</v>
       </c>
       <c r="AH5">
-        <v>0.9523764775975843</v>
+        <v>0.6401527918211437</v>
       </c>
       <c r="AI5">
-        <v>0.852218979397966</v>
+        <v>0.6004214963119072</v>
       </c>
       <c r="AJ5">
-        <v>0.9514892983967647</v>
+        <v>0.5311768149882903</v>
       </c>
       <c r="AK5">
-        <v>0.8497603049329517</v>
+        <v>0.4890176526074653</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>1823.404255319149</v>
-      </c>
-      <c r="AP5">
-        <v>1793.082025026812</v>
       </c>
     </row>
     <row r="6">
@@ -1088,7 +1070,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sbanken ASA (OB:SBANK)</t>
+          <t>SpareBank 1 Østlandet (OB:SPOL)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1097,10 +1079,13 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.123</v>
+        <v>0.104</v>
       </c>
       <c r="E6">
-        <v>0.142</v>
+        <v>0.0849</v>
+      </c>
+      <c r="F6">
+        <v>0.035</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1115,85 +1100,85 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>75.59999999999999</v>
+        <v>152.5</v>
       </c>
       <c r="L6">
-        <v>0.4259154929577464</v>
+        <v>0.3932439401753481</v>
       </c>
       <c r="M6">
-        <v>23.8</v>
+        <v>93.5</v>
       </c>
       <c r="N6">
-        <v>0.02621722846441948</v>
+        <v>0.07074222592116214</v>
       </c>
       <c r="O6">
-        <v>0.3148148148148148</v>
+        <v>0.6131147540983607</v>
       </c>
       <c r="P6">
-        <v>23.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="Q6">
-        <v>0.02621722846441948</v>
+        <v>0.05515623817810396</v>
       </c>
       <c r="R6">
-        <v>0.3148148148148148</v>
+        <v>0.4780327868852459</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>20.59999999999999</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.2203208556149732</v>
       </c>
       <c r="U6">
-        <v>186.1</v>
+        <v>117.8</v>
       </c>
       <c r="V6">
-        <v>0.2050011015642212</v>
+        <v>0.08912763864719679</v>
       </c>
       <c r="W6">
-        <v>0.1016812373907196</v>
+        <v>0.08835457705677868</v>
       </c>
       <c r="X6">
-        <v>0.1063895923653067</v>
+        <v>0.09702240790190503</v>
       </c>
       <c r="Y6">
-        <v>-0.004708354974587173</v>
+        <v>-0.008667830845126345</v>
       </c>
       <c r="Z6">
-        <v>0.03776836819371449</v>
+        <v>0.06352898776272464</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.03864835793449375</v>
+        <v>0.03247293230132919</v>
       </c>
       <c r="AC6">
-        <v>-0.03864835793449375</v>
+        <v>-0.03247293230132919</v>
       </c>
       <c r="AD6">
-        <v>3692.9</v>
+        <v>4876</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>3692.9</v>
+        <v>4876</v>
       </c>
       <c r="AG6">
-        <v>3506.8</v>
+        <v>4758.2</v>
       </c>
       <c r="AH6">
-        <v>0.8026822005347013</v>
+        <v>0.7867434693515336</v>
       </c>
       <c r="AI6">
-        <v>0.8347800533478005</v>
+        <v>0.7327482567924982</v>
       </c>
       <c r="AJ6">
-        <v>0.7943641553028586</v>
+        <v>0.7826115561111202</v>
       </c>
       <c r="AK6">
-        <v>0.8275243646317578</v>
+        <v>0.7279319523911513</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1210,7 +1195,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SpareBank 1 Østlandet (OB:SPOL)</t>
+          <t>Sbanken ASA (OB:SBANK)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1219,13 +1204,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.142</v>
+        <v>0.105</v>
       </c>
       <c r="E7">
-        <v>0.133</v>
+        <v>0.154</v>
       </c>
       <c r="F7">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1240,85 +1225,85 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>215.2</v>
+        <v>73.5</v>
       </c>
       <c r="L7">
-        <v>0.4637931034482758</v>
+        <v>0.4060773480662984</v>
       </c>
       <c r="M7">
-        <v>99.5</v>
+        <v>46.85</v>
       </c>
       <c r="N7">
-        <v>0.08155737704918033</v>
+        <v>0.05461009441659868</v>
       </c>
       <c r="O7">
-        <v>0.462360594795539</v>
+        <v>0.6374149659863946</v>
       </c>
       <c r="P7">
-        <v>76.7</v>
+        <v>4.15</v>
       </c>
       <c r="Q7">
-        <v>0.0628688524590164</v>
+        <v>0.004837393635621868</v>
       </c>
       <c r="R7">
-        <v>0.3564126394052045</v>
+        <v>0.05646258503401361</v>
       </c>
       <c r="S7">
-        <v>22.8</v>
+        <v>42.7</v>
       </c>
       <c r="T7">
-        <v>0.2291457286432161</v>
+        <v>0.9114194236926361</v>
       </c>
       <c r="U7">
-        <v>168</v>
+        <v>137.3</v>
       </c>
       <c r="V7">
-        <v>0.1377049180327869</v>
+        <v>0.1600419629327428</v>
       </c>
       <c r="W7">
-        <v>0.1280038068046633</v>
+        <v>0.1005609522506499</v>
       </c>
       <c r="X7">
-        <v>0.1008242893744082</v>
+        <v>0.1021840579587435</v>
       </c>
       <c r="Y7">
-        <v>0.02717951743025511</v>
+        <v>-0.001623105708093639</v>
       </c>
       <c r="Z7">
-        <v>0.07673607091471381</v>
+        <v>0.04271184840833471</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.03867402803128142</v>
+        <v>0.03248168415059341</v>
       </c>
       <c r="AC7">
-        <v>-0.03867402803128142</v>
+        <v>-0.03248168415059341</v>
       </c>
       <c r="AD7">
-        <v>4546.3</v>
+        <v>3415.9</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>4546.3</v>
+        <v>3415.9</v>
       </c>
       <c r="AG7">
-        <v>4378.3</v>
+        <v>3278.6</v>
       </c>
       <c r="AH7">
-        <v>0.7884258536669961</v>
+        <v>0.7992652908418737</v>
       </c>
       <c r="AI7">
-        <v>0.7235298798440361</v>
+        <v>0.8118983671238086</v>
       </c>
       <c r="AJ7">
-        <v>0.7820767018559206</v>
+        <v>0.7926024416777468</v>
       </c>
       <c r="AK7">
-        <v>0.7159349194669283</v>
+        <v>0.8055528255528255</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1335,7 +1320,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pareto Bank ASA (OB:PARB)</t>
+          <t>DNB ASA (OB:DNB)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1344,10 +1329,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.155</v>
+        <v>-0.0135</v>
       </c>
       <c r="E8">
-        <v>0.175</v>
+        <v>-0.0222</v>
+      </c>
+      <c r="F8">
+        <v>0.0129</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1362,85 +1350,85 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>40.1</v>
+        <v>2190.6</v>
       </c>
       <c r="L8">
-        <v>0.5931952662721894</v>
+        <v>0.4255079445242997</v>
       </c>
       <c r="M8">
-        <v>5.743</v>
+        <v>1717.1</v>
       </c>
       <c r="N8">
-        <v>0.01870684039087948</v>
+        <v>0.05256487572819695</v>
       </c>
       <c r="O8">
-        <v>0.143216957605985</v>
+        <v>0.7838491737423537</v>
       </c>
       <c r="P8">
-        <v>5.74</v>
+        <v>132.7</v>
       </c>
       <c r="Q8">
-        <v>0.0186970684039088</v>
+        <v>0.004062290495097393</v>
       </c>
       <c r="R8">
-        <v>0.143142144638404</v>
+        <v>0.0605770108646033</v>
       </c>
       <c r="S8">
-        <v>0.003000000000000114</v>
+        <v>1584.4</v>
       </c>
       <c r="T8">
-        <v>0.0005223750652969029</v>
+        <v>0.9227185370683129</v>
       </c>
       <c r="U8">
-        <v>110.5</v>
+        <v>39529.7</v>
       </c>
       <c r="V8">
-        <v>0.3599348534201954</v>
+        <v>1.210106439970245</v>
       </c>
       <c r="W8">
-        <v>0.1343833780160858</v>
+        <v>0.08647731085802261</v>
       </c>
       <c r="X8">
-        <v>0.07459355400219353</v>
+        <v>0.1085990262796055</v>
       </c>
       <c r="Y8">
-        <v>0.05978982401389227</v>
+        <v>-0.02212171542158292</v>
       </c>
       <c r="Z8">
-        <v>0.08305688659540483</v>
+        <v>0.04055987470101254</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.03887075083987189</v>
+        <v>0.03249122608705662</v>
       </c>
       <c r="AC8">
-        <v>-0.03887075083987189</v>
+        <v>-0.03249122608705662</v>
       </c>
       <c r="AD8">
-        <v>649.9</v>
+        <v>141942.8</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>649.9</v>
+        <v>141942.8</v>
       </c>
       <c r="AG8">
-        <v>539.4</v>
+        <v>102413.1</v>
       </c>
       <c r="AH8">
-        <v>0.6791723273069287</v>
+        <v>0.81291753980749</v>
       </c>
       <c r="AI8">
-        <v>0.6523790403533426</v>
+        <v>0.8443196621360377</v>
       </c>
       <c r="AJ8">
-        <v>0.6372873345935728</v>
+        <v>0.7581696394861096</v>
       </c>
       <c r="AK8">
-        <v>0.6090098227390763</v>
+        <v>0.7964604041052904</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1457,7 +1445,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SpareBank 1 Ringerike Hadeland (OB:RING)</t>
+          <t>SpareBank 1 Telemark (OB:SBTE)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1466,10 +1454,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0659</v>
+        <v>0.09539999999999998</v>
       </c>
       <c r="E9">
-        <v>0.0843</v>
+        <v>0.146</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1484,28 +1472,28 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>47.7</v>
+        <v>33.8</v>
       </c>
       <c r="L9">
-        <v>0.4877300613496933</v>
+        <v>0.4311224489795918</v>
       </c>
       <c r="M9">
-        <v>18.3</v>
+        <v>7.09</v>
       </c>
       <c r="N9">
-        <v>0.04464503537448158</v>
+        <v>0.04012450481041313</v>
       </c>
       <c r="O9">
-        <v>0.3836477987421383</v>
+        <v>0.2097633136094675</v>
       </c>
       <c r="P9">
-        <v>18.3</v>
+        <v>7.09</v>
       </c>
       <c r="Q9">
-        <v>0.04464503537448158</v>
+        <v>0.04012450481041313</v>
       </c>
       <c r="R9">
-        <v>0.3836477987421383</v>
+        <v>0.2097633136094675</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1514,55 +1502,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>9.83</v>
+        <v>1.39</v>
       </c>
       <c r="V9">
-        <v>0.02398145889241279</v>
+        <v>0.007866440294284098</v>
       </c>
       <c r="W9">
-        <v>0.1118667917448405</v>
+        <v>0.08984582668793195</v>
       </c>
       <c r="X9">
-        <v>0.06466848855256779</v>
+        <v>0.1116545381720939</v>
       </c>
       <c r="Y9">
-        <v>0.04719830319227275</v>
+        <v>-0.02180871148416194</v>
       </c>
       <c r="Z9">
-        <v>0.0878864126527678</v>
+        <v>0.07555679770245656</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.03901103215729333</v>
+        <v>0.0324953289867798</v>
       </c>
       <c r="AC9">
-        <v>-0.03901103215729333</v>
+        <v>-0.0324953289867798</v>
       </c>
       <c r="AD9">
-        <v>618.1</v>
+        <v>798.4</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>618.1</v>
+        <v>798.4</v>
       </c>
       <c r="AG9">
-        <v>608.27</v>
+        <v>797.01</v>
       </c>
       <c r="AH9">
-        <v>0.6012645914396887</v>
+        <v>0.8187878166341914</v>
       </c>
       <c r="AI9">
-        <v>0.6018500486854917</v>
+        <v>0.6710935529965537</v>
       </c>
       <c r="AJ9">
-        <v>0.5974149699951874</v>
+        <v>0.8185291308500477</v>
       </c>
       <c r="AK9">
-        <v>0.598002300500408</v>
+        <v>0.6707088217720966</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1579,7 +1567,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DNB ASA (OB:DNB)</t>
+          <t>Sparebanken Vest (OB:SVEG)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1588,13 +1576,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.0249</v>
+        <v>0.048</v>
       </c>
       <c r="E10">
-        <v>0.0458</v>
-      </c>
-      <c r="F10">
-        <v>0.0599</v>
+        <v>0.105</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1603,103 +1588,97 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-0.0148824466265035</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>-0.01272753194967616</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2933.6</v>
+        <v>186.3</v>
       </c>
       <c r="L10">
-        <v>0.4875357309047397</v>
+        <v>0.484399375975039</v>
       </c>
       <c r="M10">
-        <v>1796.5</v>
+        <v>96.5</v>
       </c>
       <c r="N10">
-        <v>0.06125253158946313</v>
+        <v>0.1064533921676779</v>
       </c>
       <c r="O10">
-        <v>0.6123875102263431</v>
+        <v>0.5179817498658078</v>
       </c>
       <c r="P10">
-        <v>1554.1</v>
+        <v>96.5</v>
       </c>
       <c r="Q10">
-        <v>0.05298778699871119</v>
+        <v>0.1064533921676779</v>
       </c>
       <c r="R10">
-        <v>0.5297586583037905</v>
+        <v>0.5179817498658078</v>
       </c>
       <c r="S10">
-        <v>242.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.1349290286668523</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>44446.6</v>
+        <v>61.7</v>
       </c>
       <c r="V10">
-        <v>1.51542820514569</v>
+        <v>0.06806398234969664</v>
       </c>
       <c r="W10">
-        <v>0.1108110251984029</v>
+        <v>0.1027691968225949</v>
       </c>
       <c r="X10">
-        <v>0.1215244120947589</v>
+        <v>0.2844932348887977</v>
       </c>
       <c r="Y10">
-        <v>-0.01071338689635601</v>
+        <v>-0.1817240380662029</v>
       </c>
       <c r="Z10">
-        <v>0.04613141725975536</v>
+        <v>0.02931715274495755</v>
       </c>
       <c r="AA10">
-        <v>-0.0005871390870573785</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.03859333488838713</v>
+        <v>0.03257634099058418</v>
       </c>
       <c r="AC10">
-        <v>-0.03918047397544451</v>
+        <v>-0.03257634099058418</v>
       </c>
       <c r="AD10">
-        <v>146043.5</v>
+        <v>12974.9</v>
       </c>
       <c r="AE10">
-        <v>505.2532892049843</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>146548.753289205</v>
+        <v>12974.9</v>
       </c>
       <c r="AG10">
-        <v>102102.153289205</v>
+        <v>12913.2</v>
       </c>
       <c r="AH10">
-        <v>0.8332402322204723</v>
+        <v>0.9346967885083637</v>
       </c>
       <c r="AI10">
-        <v>0.8525959337712155</v>
+        <v>0.8729018238574821</v>
       </c>
       <c r="AJ10">
-        <v>0.7768465846594469</v>
+        <v>0.934405233109257</v>
       </c>
       <c r="AK10">
-        <v>0.8011860651013901</v>
+        <v>0.8723720477760363</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>12699.4347826087</v>
-      </c>
-      <c r="AP10">
-        <v>8878.448112104781</v>
       </c>
     </row>
     <row r="11">
@@ -1710,7 +1689,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Komplett Bank ASA (OB:KOMP)</t>
+          <t>Sparebanken Øst (OB:SPOG)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1718,6 +1697,12 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D11">
+        <v>0.0557</v>
+      </c>
+      <c r="E11">
+        <v>0.114</v>
+      </c>
       <c r="G11">
         <v>0</v>
       </c>
@@ -1725,34 +1710,34 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.000437262783863727</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0003221447685790091</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>34.7</v>
+        <v>47.7</v>
       </c>
       <c r="L11">
-        <v>0.3648790746582545</v>
+        <v>0.5335570469798657</v>
       </c>
       <c r="M11">
-        <v>0.418</v>
+        <v>1.9</v>
       </c>
       <c r="N11">
-        <v>0.001597859327217125</v>
+        <v>0.01528559935639582</v>
       </c>
       <c r="O11">
-        <v>0.01204610951008645</v>
+        <v>0.03983228511530398</v>
       </c>
       <c r="P11">
-        <v>0.418</v>
+        <v>1.9</v>
       </c>
       <c r="Q11">
-        <v>0.001597859327217125</v>
+        <v>0.01528559935639582</v>
       </c>
       <c r="R11">
-        <v>0.01204610951008645</v>
+        <v>0.03983228511530398</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1761,67 +1746,61 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>126.1</v>
+        <v>48.4</v>
       </c>
       <c r="V11">
-        <v>0.4820336391437308</v>
+        <v>0.3893805309734513</v>
       </c>
       <c r="W11">
-        <v>0.1859592711682744</v>
+        <v>0.1067114093959732</v>
       </c>
       <c r="X11">
-        <v>0.04066133547200819</v>
+        <v>0.3809387412457753</v>
       </c>
       <c r="Y11">
-        <v>0.1452979356962662</v>
+        <v>-0.2742273318498021</v>
       </c>
       <c r="Z11">
-        <v>0.8561236760798794</v>
+        <v>0.03011622031328954</v>
       </c>
       <c r="AA11">
-        <v>0.0002757957635057633</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04019059358067838</v>
+        <v>0.03258834657613829</v>
       </c>
       <c r="AC11">
-        <v>-0.03991479781717262</v>
+        <v>-0.03258834657613829</v>
       </c>
       <c r="AD11">
-        <v>7.13</v>
+        <v>2458.5</v>
       </c>
       <c r="AE11">
-        <v>1.982081546272798</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>9.112081546272798</v>
+        <v>2458.5</v>
       </c>
       <c r="AG11">
-        <v>-116.9879184537272</v>
+        <v>2410.1</v>
       </c>
       <c r="AH11">
-        <v>0.03365967818734115</v>
+        <v>0.9518739352640544</v>
       </c>
       <c r="AI11">
-        <v>0.04253766398467334</v>
+        <v>0.8362244897959183</v>
       </c>
       <c r="AJ11">
-        <v>-0.8089774879306575</v>
+        <v>0.950954861111111</v>
       </c>
       <c r="AK11">
-        <v>-1.327717112122587</v>
+        <v>0.8334831926960852</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>16.27853881278539</v>
-      </c>
-      <c r="AP11">
-        <v>-267.0957042322539</v>
       </c>
     </row>
     <row r="12">
@@ -1832,7 +1811,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Norwegian Finans Holding ASA (OB:NOFI)</t>
+          <t>Sparebanken Sør (OB:SOR)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1841,13 +1820,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.366</v>
+        <v>0.0556</v>
       </c>
       <c r="E12">
-        <v>0.446</v>
-      </c>
-      <c r="F12">
-        <v>0.04</v>
+        <v>0.09720000000000001</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1856,103 +1832,97 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.148536510587924e-05</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4.621151648021157e-05</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>213.4</v>
+        <v>111.9</v>
       </c>
       <c r="L12">
-        <v>0.5008214034264257</v>
+        <v>0.4526699029126214</v>
       </c>
       <c r="M12">
-        <v>35.8</v>
+        <v>7.47</v>
       </c>
       <c r="N12">
-        <v>0.01766592647421663</v>
+        <v>0.03569039655996178</v>
       </c>
       <c r="O12">
-        <v>0.1677600749765698</v>
+        <v>0.06675603217158177</v>
       </c>
       <c r="P12">
-        <v>4.3</v>
+        <v>7.47</v>
       </c>
       <c r="Q12">
-        <v>0.002121885023439427</v>
+        <v>0.03569039655996178</v>
       </c>
       <c r="R12">
-        <v>0.02014995313964386</v>
+        <v>0.06675603217158177</v>
       </c>
       <c r="S12">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0.8798882681564245</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>186.6</v>
+        <v>67.2</v>
       </c>
       <c r="V12">
-        <v>0.09207994078460399</v>
+        <v>0.3210702341137124</v>
       </c>
       <c r="W12">
-        <v>0.2451746323529412</v>
+        <v>0.08124591592245699</v>
       </c>
       <c r="X12">
-        <v>0.04392727649687451</v>
+        <v>0.672253884673831</v>
       </c>
       <c r="Y12">
-        <v>0.2012473558560667</v>
+        <v>-0.591007968751374</v>
       </c>
       <c r="Z12">
-        <v>0.4619475926272579</v>
+        <v>0.03450730767620084</v>
       </c>
       <c r="AA12">
-        <v>2.134729878968859e-05</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04064201378679271</v>
+        <v>0.03260323899161144</v>
       </c>
       <c r="AC12">
-        <v>-0.04062066648800303</v>
+        <v>-0.03260323899161144</v>
       </c>
       <c r="AD12">
-        <v>475.9</v>
+        <v>7595</v>
       </c>
       <c r="AE12">
-        <v>0.7990054296419242</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>476.6990054296419</v>
+        <v>7595</v>
       </c>
       <c r="AG12">
-        <v>290.0990054296419</v>
+        <v>7527.8</v>
       </c>
       <c r="AH12">
-        <v>0.1904359199550827</v>
+        <v>0.9731814512512332</v>
       </c>
       <c r="AI12">
-        <v>0.3252366302110621</v>
+        <v>0.8380042369141142</v>
       </c>
       <c r="AJ12">
-        <v>0.1252262496658715</v>
+        <v>0.9729485207635936</v>
       </c>
       <c r="AK12">
-        <v>0.2267994926101904</v>
+        <v>0.8367941307247666</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>2558.602150537634</v>
-      </c>
-      <c r="AP12">
-        <v>1559.672072202376</v>
       </c>
     </row>
     <row r="13">
@@ -1963,7 +1933,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Easybank ASA (OTCNO:EASY)</t>
+          <t>BRAbank ASA New (OB:BRA)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1972,10 +1942,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.402</v>
-      </c>
-      <c r="E13">
-        <v>0.8179999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1990,10 +1957,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7.33</v>
+        <v>5.38</v>
       </c>
       <c r="L13">
-        <v>0.4072222222222222</v>
+        <v>0.3470967741935484</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -2017,55 +1984,55 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>5.96</v>
+        <v>5.37</v>
       </c>
       <c r="V13">
-        <v>0.1382830626450116</v>
+        <v>0.07010443864229765</v>
       </c>
       <c r="W13">
-        <v>0.1261617900172117</v>
+        <v>0.08907284768211921</v>
       </c>
       <c r="X13">
-        <v>0.04321696337196409</v>
+        <v>0.03623088682471203</v>
       </c>
       <c r="Y13">
-        <v>0.0829448266452476</v>
+        <v>0.05284196085740717</v>
       </c>
       <c r="Z13">
-        <v>0.2964915170482622</v>
+        <v>0.2472089314194577</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04103344083589665</v>
+        <v>0.0330703539430529</v>
       </c>
       <c r="AC13">
-        <v>-0.04103344083589665</v>
+        <v>-0.0330703539430529</v>
       </c>
       <c r="AD13">
-        <v>8.26</v>
+        <v>18.7</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>8.26</v>
+        <v>18.7</v>
       </c>
       <c r="AG13">
-        <v>2.3</v>
+        <v>13.33</v>
       </c>
       <c r="AH13">
-        <v>0.1608255451713396</v>
+        <v>0.1962224554039874</v>
       </c>
       <c r="AI13">
-        <v>0.1203029420332071</v>
+        <v>0.251006711409396</v>
       </c>
       <c r="AJ13">
-        <v>0.05066079295154185</v>
+        <v>0.1482263983097965</v>
       </c>
       <c r="AK13">
-        <v>0.03668261562998405</v>
+        <v>0.1928251121076233</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2082,7 +2049,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SpareBank 1 Telemark (OB:SBTE)</t>
+          <t>Norwegian Finans Holding ASA (OB:NOFI)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2091,10 +2058,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.08220000000000001</v>
+        <v>0.271</v>
       </c>
       <c r="E14">
-        <v>0.117</v>
+        <v>0.327</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2109,28 +2076,28 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>34.2</v>
+        <v>208.7</v>
       </c>
       <c r="L14">
-        <v>0.4275</v>
+        <v>0.4979718444285373</v>
       </c>
       <c r="M14">
-        <v>7.17</v>
+        <v>4.8</v>
       </c>
       <c r="N14">
-        <v>0.0444513329200248</v>
+        <v>0.003010159287595635</v>
       </c>
       <c r="O14">
-        <v>0.2096491228070175</v>
+        <v>0.02299952084331576</v>
       </c>
       <c r="P14">
-        <v>7.17</v>
+        <v>4.8</v>
       </c>
       <c r="Q14">
-        <v>0.0444513329200248</v>
+        <v>0.003010159287595635</v>
       </c>
       <c r="R14">
-        <v>0.2096491228070175</v>
+        <v>0.02299952084331576</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2139,55 +2106,55 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>1.87</v>
+        <v>270.4</v>
       </c>
       <c r="V14">
-        <v>0.0115933044017359</v>
+        <v>0.1695723065345541</v>
       </c>
       <c r="W14">
-        <v>0.09023746701846966</v>
+        <v>0.2110212335692619</v>
       </c>
       <c r="X14">
-        <v>0.1071106846417952</v>
+        <v>0.04216914588234021</v>
       </c>
       <c r="Y14">
-        <v>-0.0168732176233255</v>
+        <v>0.1688520876869217</v>
       </c>
       <c r="Z14">
-        <v>0.07213250741612343</v>
+        <v>0.3278573104904952</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.04479404005908508</v>
+        <v>0.03407091117793282</v>
       </c>
       <c r="AC14">
-        <v>-0.04479404005908508</v>
+        <v>-0.03407091117793282</v>
       </c>
       <c r="AD14">
-        <v>663.3</v>
+        <v>925.9</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>663.3</v>
+        <v>925.9</v>
       </c>
       <c r="AG14">
-        <v>661.4299999999999</v>
+        <v>655.5</v>
       </c>
       <c r="AH14">
-        <v>0.8043900072762552</v>
+        <v>0.3673477484626066</v>
       </c>
       <c r="AI14">
-        <v>0.6378497932493508</v>
+        <v>0.4430779537732689</v>
       </c>
       <c r="AJ14">
-        <v>0.8039454012859625</v>
+        <v>0.2913203857606328</v>
       </c>
       <c r="AK14">
-        <v>0.6371973835052936</v>
+        <v>0.3603034134007586</v>
       </c>
       <c r="AL14">
         <v>0</v>
